--- a/data/league_data/germany/18/germany_defending.xlsx
+++ b/data/league_data/germany/18/germany_defending.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanjitvarma/Desktop/trial_git/Predicting-Football-Player-Transfer-Values/data/league_data/germany/18/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7548DDB-3AFC-2E46-9674-837647292DE0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396336F9-4280-1B45-A3B1-6012C5D57BF9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -733,9 +733,6 @@
     <t>au AUS</t>
   </si>
   <si>
-    <t>Rafinha</t>
-  </si>
-  <si>
     <t>Alfreð Finnbogason</t>
   </si>
   <si>
@@ -1778,12 +1775,15 @@
   </si>
   <si>
     <t>Alexander Meier</t>
+  </si>
+  <si>
+    <t>Rafinha de Souza</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2641,14 +2641,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE486"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AE485"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1:AF1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="B150" sqref="B150"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
@@ -2683,7 +2683,7 @@
     <col min="31" max="31" width="3.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2778,7 +2778,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3158,7 +3158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -3348,7 +3348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3819,7 +3819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3914,7 +3914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4294,7 +4294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4484,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5244,7 +5244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5434,7 +5434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5814,7 +5814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -6099,7 +6099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -6382,7 +6382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -6570,7 +6570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -6950,7 +6950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -7045,7 +7045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -7235,7 +7235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -7330,7 +7330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -7615,7 +7615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -8090,7 +8090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -8565,7 +8565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -8850,7 +8850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -9610,7 +9610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -9705,7 +9705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -9895,7 +9895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -9990,7 +9990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -10275,7 +10275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -10370,7 +10370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -10465,7 +10465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -10750,7 +10750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -10845,7 +10845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -11035,7 +11035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -11510,7 +11510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -11605,7 +11605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -11795,7 +11795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -11985,7 +11985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -12175,7 +12175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -12270,7 +12270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -12365,7 +12365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -12555,7 +12555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -12650,7 +12650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -12745,7 +12745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -12840,7 +12840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -13030,7 +13030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -13125,7 +13125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -13220,7 +13220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -13410,7 +13410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -13505,7 +13505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -13695,7 +13695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -13790,7 +13790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -13885,7 +13885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -14075,7 +14075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -14170,7 +14170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -14265,7 +14265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -14455,7 +14455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -14645,7 +14645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -14740,7 +14740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -14835,7 +14835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -14930,7 +14930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -15025,7 +15025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -15120,7 +15120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -15215,7 +15215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -15405,7 +15405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -15500,7 +15500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -15595,7 +15595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -15690,7 +15690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -15785,7 +15785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -15880,7 +15880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -15975,7 +15975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -16070,7 +16070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -16165,7 +16165,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -16260,7 +16260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -16355,7 +16355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -16450,7 +16450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -16640,7 +16640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -16735,7 +16735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -16830,12 +16830,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>237</v>
+        <v>585</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>46</v>
@@ -16925,15 +16925,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>118</v>
@@ -17020,12 +17020,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>96</v>
@@ -17115,12 +17115,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>94</v>
@@ -17210,12 +17210,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>28</v>
@@ -17305,12 +17305,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>28</v>
@@ -17400,12 +17400,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>169</v>
@@ -17495,12 +17495,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>28</v>
@@ -17590,12 +17590,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>28</v>
@@ -17685,12 +17685,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>28</v>
@@ -17780,12 +17780,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>100</v>
@@ -17875,12 +17875,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>94</v>
@@ -17970,12 +17970,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>28</v>
@@ -18065,15 +18065,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>251</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>35</v>
@@ -18160,12 +18160,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>28</v>
@@ -18255,12 +18255,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>28</v>
@@ -18350,12 +18350,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>28</v>
@@ -18445,12 +18445,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>28</v>
@@ -18540,12 +18540,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>79</v>
@@ -18635,12 +18635,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>105</v>
@@ -18730,12 +18730,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>128</v>
@@ -18825,12 +18825,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>128</v>
@@ -18920,12 +18920,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>28</v>
@@ -19015,12 +19015,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>52</v>
@@ -19110,12 +19110,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>94</v>
@@ -19205,15 +19205,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>84</v>
@@ -19300,12 +19300,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>28</v>
@@ -19395,15 +19395,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>267</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>268</v>
       </c>
       <c r="D177" s="3" t="s">
         <v>69</v>
@@ -19490,12 +19490,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>230</v>
@@ -19585,15 +19585,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C179" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="D179" s="3" t="s">
         <v>35</v>
@@ -19680,12 +19680,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>46</v>
@@ -19775,12 +19775,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C181" s="3" t="s">
         <v>152</v>
@@ -19870,12 +19870,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C182" s="3" t="s">
         <v>28</v>
@@ -19965,12 +19965,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C183" s="3" t="s">
         <v>28</v>
@@ -20060,12 +20060,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C184" s="3" t="s">
         <v>28</v>
@@ -20155,12 +20155,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>57</v>
@@ -20250,12 +20250,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="186" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>49</v>
@@ -20345,15 +20345,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>279</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>280</v>
       </c>
       <c r="D187" s="3" t="s">
         <v>81</v>
@@ -20440,12 +20440,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>28</v>
@@ -20535,12 +20535,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>94</v>
@@ -20630,12 +20630,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C190" s="3" t="s">
         <v>128</v>
@@ -20725,12 +20725,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>28</v>
@@ -20820,12 +20820,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>28</v>
@@ -20915,12 +20915,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>28</v>
@@ -21010,12 +21010,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>28</v>
@@ -21105,12 +21105,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>28</v>
@@ -21200,12 +21200,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="196" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>105</v>
@@ -21295,12 +21295,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>28</v>
@@ -21390,12 +21390,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C198" s="3" t="s">
         <v>28</v>
@@ -21485,12 +21485,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>49</v>
@@ -21580,12 +21580,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>96</v>
@@ -21675,12 +21675,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C201" s="3" t="s">
         <v>150</v>
@@ -21770,15 +21770,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C202" s="3" t="s">
         <v>295</v>
-      </c>
-      <c r="C202" s="3" t="s">
-        <v>296</v>
       </c>
       <c r="D202" s="3" t="s">
         <v>118</v>
@@ -21865,15 +21865,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C203" s="3" t="s">
         <v>297</v>
-      </c>
-      <c r="C203" s="3" t="s">
-        <v>298</v>
       </c>
       <c r="D203" s="3" t="s">
         <v>35</v>
@@ -21960,12 +21960,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C204" s="3" t="s">
         <v>105</v>
@@ -22055,12 +22055,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>57</v>
@@ -22150,15 +22150,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C206" s="3" t="s">
         <v>301</v>
-      </c>
-      <c r="C206" s="3" t="s">
-        <v>302</v>
       </c>
       <c r="D206" s="3" t="s">
         <v>118</v>
@@ -22245,12 +22245,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C207" s="3" t="s">
         <v>137</v>
@@ -22340,12 +22340,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>114</v>
@@ -22435,12 +22435,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C209" s="3" t="s">
         <v>94</v>
@@ -22530,12 +22530,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>28</v>
@@ -22625,15 +22625,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C211" s="3" t="s">
         <v>307</v>
-      </c>
-      <c r="C211" s="3" t="s">
-        <v>308</v>
       </c>
       <c r="D211" s="3" t="s">
         <v>35</v>
@@ -22720,12 +22720,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C212" s="3" t="s">
         <v>114</v>
@@ -22815,12 +22815,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C213" s="3" t="s">
         <v>28</v>
@@ -22910,15 +22910,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C214" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="D214" s="3" t="s">
         <v>118</v>
@@ -23005,12 +23005,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>46</v>
@@ -23100,12 +23100,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C216" s="3" t="s">
         <v>28</v>
@@ -23195,12 +23195,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C217" s="3" t="s">
         <v>94</v>
@@ -23290,12 +23290,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>28</v>
@@ -23385,12 +23385,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>46</v>
@@ -23480,12 +23480,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C220" s="3" t="s">
         <v>87</v>
@@ -23575,12 +23575,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>28</v>
@@ -23670,12 +23670,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>28</v>
@@ -23765,12 +23765,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>222</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C223" s="3" t="s">
         <v>28</v>
@@ -23860,12 +23860,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>223</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>94</v>
@@ -23955,12 +23955,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>224</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>49</v>
@@ -24050,12 +24050,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>225</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C226" s="3" t="s">
         <v>28</v>
@@ -24145,12 +24145,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>226</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>28</v>
@@ -24238,12 +24238,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>227</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>152</v>
@@ -24333,12 +24333,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>228</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C229" s="3" t="s">
         <v>230</v>
@@ -24428,15 +24428,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>229</v>
       </c>
       <c r="B230" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C230" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="C230" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="D230" s="3" t="s">
         <v>35</v>
@@ -24523,12 +24523,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>230</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>28</v>
@@ -24618,12 +24618,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>231</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C232" s="3" t="s">
         <v>28</v>
@@ -24713,12 +24713,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>232</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>49</v>
@@ -24808,12 +24808,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>233</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>28</v>
@@ -24903,12 +24903,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>234</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C235" s="3" t="s">
         <v>166</v>
@@ -24998,12 +24998,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>235</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>28</v>
@@ -25093,12 +25093,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>236</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>28</v>
@@ -25188,12 +25188,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>237</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C238" s="3" t="s">
         <v>28</v>
@@ -25283,12 +25283,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>238</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C239" s="3" t="s">
         <v>28</v>
@@ -25378,12 +25378,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>239</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C240" s="3" t="s">
         <v>49</v>
@@ -25473,12 +25473,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>240</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C241" s="3" t="s">
         <v>28</v>
@@ -25568,12 +25568,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>241</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C242" s="3" t="s">
         <v>49</v>
@@ -25663,12 +25663,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>242</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C243" s="3" t="s">
         <v>28</v>
@@ -25758,12 +25758,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>243</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C244" s="3" t="s">
         <v>28</v>
@@ -25853,15 +25853,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>244</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D245" s="3" t="s">
         <v>35</v>
@@ -25948,12 +25948,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="246" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>245</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C246" s="3" t="s">
         <v>158</v>
@@ -26043,12 +26043,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>246</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C247" s="3" t="s">
         <v>28</v>
@@ -26138,12 +26138,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>247</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C248" s="3" t="s">
         <v>28</v>
@@ -26233,12 +26233,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>248</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C249" s="3" t="s">
         <v>28</v>
@@ -26328,12 +26328,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>249</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C250" s="3" t="s">
         <v>49</v>
@@ -26423,12 +26423,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>250</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C251" s="3" t="s">
         <v>28</v>
@@ -26518,12 +26518,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>251</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C252" s="3" t="s">
         <v>28</v>
@@ -26613,12 +26613,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>252</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C253" s="3" t="s">
         <v>28</v>
@@ -26708,12 +26708,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>253</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C254" s="3" t="s">
         <v>28</v>
@@ -26803,12 +26803,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>254</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C255" s="3" t="s">
         <v>186</v>
@@ -26898,12 +26898,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>255</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>28</v>
@@ -26993,12 +26993,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>256</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>28</v>
@@ -27088,12 +27088,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>257</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C258" s="3" t="s">
         <v>28</v>
@@ -27183,12 +27183,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>258</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>94</v>
@@ -27278,12 +27278,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>259</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>114</v>
@@ -27373,15 +27373,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>260</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D261" s="3" t="s">
         <v>81</v>
@@ -27468,12 +27468,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>261</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>105</v>
@@ -27563,12 +27563,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>262</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>28</v>
@@ -27658,12 +27658,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>263</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C264" s="3" t="s">
         <v>57</v>
@@ -27753,12 +27753,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>264</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>28</v>
@@ -27848,15 +27848,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>265</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D266" s="3" t="s">
         <v>81</v>
@@ -27943,15 +27943,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>266</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D267" s="3" t="s">
         <v>84</v>
@@ -28038,12 +28038,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>267</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>158</v>
@@ -28133,12 +28133,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>268</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>166</v>
@@ -28228,12 +28228,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>269</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C270" s="3" t="s">
         <v>105</v>
@@ -28323,12 +28323,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>270</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>28</v>
@@ -28418,12 +28418,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>271</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>87</v>
@@ -28513,12 +28513,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>272</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C273" s="3" t="s">
         <v>28</v>
@@ -28608,12 +28608,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>273</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>28</v>
@@ -28703,12 +28703,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>274</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>230</v>
@@ -28798,15 +28798,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>275</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D276" s="3" t="s">
         <v>118</v>
@@ -28893,12 +28893,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>276</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>28</v>
@@ -28988,15 +28988,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>277</v>
       </c>
       <c r="B278" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C278" s="3" t="s">
         <v>377</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>378</v>
       </c>
       <c r="D278" s="3" t="s">
         <v>69</v>
@@ -29083,12 +29083,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>278</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C279" s="3" t="s">
         <v>28</v>
@@ -29178,12 +29178,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>279</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>100</v>
@@ -29273,12 +29273,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>280</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>28</v>
@@ -29368,12 +29368,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>281</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C282" s="3" t="s">
         <v>96</v>
@@ -29463,15 +29463,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>282</v>
       </c>
       <c r="B283" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C283" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>382</v>
       </c>
       <c r="D283" s="3" t="s">
         <v>35</v>
@@ -29558,12 +29558,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>283</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>28</v>
@@ -29653,12 +29653,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>284</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C285" s="3" t="s">
         <v>57</v>
@@ -29748,12 +29748,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>285</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C286" s="3" t="s">
         <v>207</v>
@@ -29843,12 +29843,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>286</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C287" s="3" t="s">
         <v>28</v>
@@ -29938,12 +29938,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>287</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C288" s="3" t="s">
         <v>57</v>
@@ -30033,12 +30033,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>288</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C289" s="3" t="s">
         <v>32</v>
@@ -30128,15 +30128,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>289</v>
       </c>
       <c r="B290" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C290" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="C290" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="D290" s="3" t="s">
         <v>215</v>
@@ -30223,12 +30223,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>290</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>28</v>
@@ -30318,12 +30318,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>291</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>28</v>
@@ -30413,12 +30413,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>292</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C293" s="3" t="s">
         <v>60</v>
@@ -30508,12 +30508,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>293</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>230</v>
@@ -30603,12 +30603,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>294</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C295" s="3" t="s">
         <v>169</v>
@@ -30698,12 +30698,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>295</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C296" s="3" t="s">
         <v>28</v>
@@ -30793,12 +30793,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>296</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C297" s="3" t="s">
         <v>94</v>
@@ -30888,12 +30888,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>297</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C298" s="3" t="s">
         <v>49</v>
@@ -30983,12 +30983,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>298</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C299" s="3" t="s">
         <v>166</v>
@@ -31078,15 +31078,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>299</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D300" s="3" t="s">
         <v>84</v>
@@ -31173,12 +31173,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>300</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>28</v>
@@ -31268,12 +31268,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>301</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>32</v>
@@ -31363,12 +31363,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>302</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C303" s="3" t="s">
         <v>28</v>
@@ -31458,12 +31458,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>303</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>230</v>
@@ -31553,12 +31553,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>304</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>94</v>
@@ -31648,12 +31648,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>305</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>57</v>
@@ -31743,12 +31743,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>306</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C307" s="3" t="s">
         <v>28</v>
@@ -31838,12 +31838,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>307</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>49</v>
@@ -31933,12 +31933,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>308</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>28</v>
@@ -32028,12 +32028,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>309</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>71</v>
@@ -32123,12 +32123,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>310</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C311" s="3" t="s">
         <v>32</v>
@@ -32218,12 +32218,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>311</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>76</v>
@@ -32313,12 +32313,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>312</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>169</v>
@@ -32408,12 +32408,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>313</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>230</v>
@@ -32503,12 +32503,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>314</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C315" s="3" t="s">
         <v>94</v>
@@ -32598,15 +32598,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>315</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D316" s="3" t="s">
         <v>84</v>
@@ -32693,12 +32693,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>316</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C317" s="3" t="s">
         <v>105</v>
@@ -32788,12 +32788,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>317</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>169</v>
@@ -32883,12 +32883,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>318</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C319" s="3" t="s">
         <v>152</v>
@@ -32978,12 +32978,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>319</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>28</v>
@@ -33073,12 +33073,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>320</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C321" s="3" t="s">
         <v>28</v>
@@ -33168,12 +33168,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>321</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>158</v>
@@ -33263,12 +33263,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>322</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C323" s="3" t="s">
         <v>150</v>
@@ -33358,12 +33358,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>323</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>57</v>
@@ -33453,12 +33453,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>324</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C325" s="3" t="s">
         <v>52</v>
@@ -33548,12 +33548,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>325</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C326" s="3" t="s">
         <v>28</v>
@@ -33643,12 +33643,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>326</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C327" s="3" t="s">
         <v>28</v>
@@ -33738,15 +33738,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>327</v>
       </c>
       <c r="B328" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="C328" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="C328" s="3" t="s">
-        <v>427</v>
       </c>
       <c r="D328" s="3" t="s">
         <v>118</v>
@@ -33833,12 +33833,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>328</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C329" s="3" t="s">
         <v>28</v>
@@ -33928,12 +33928,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>329</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C330" s="3" t="s">
         <v>79</v>
@@ -34023,12 +34023,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>330</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C331" s="3" t="s">
         <v>28</v>
@@ -34118,12 +34118,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>331</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C332" s="3" t="s">
         <v>57</v>
@@ -34213,12 +34213,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>332</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C333" s="3" t="s">
         <v>49</v>
@@ -34308,12 +34308,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>333</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C334" s="3" t="s">
         <v>28</v>
@@ -34403,12 +34403,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>334</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C335" s="3" t="s">
         <v>28</v>
@@ -34498,12 +34498,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>335</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C336" s="3" t="s">
         <v>46</v>
@@ -34593,12 +34593,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>336</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C337" s="3" t="s">
         <v>28</v>
@@ -34688,12 +34688,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>337</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C338" s="3" t="s">
         <v>94</v>
@@ -34783,12 +34783,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>338</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C339" s="3" t="s">
         <v>169</v>
@@ -34878,12 +34878,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>339</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C340" s="3" t="s">
         <v>105</v>
@@ -34973,12 +34973,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>340</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>28</v>
@@ -35068,15 +35068,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>341</v>
       </c>
       <c r="B342" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C342" s="3" t="s">
         <v>441</v>
-      </c>
-      <c r="C342" s="3" t="s">
-        <v>442</v>
       </c>
       <c r="D342" s="3" t="s">
         <v>81</v>
@@ -35163,15 +35163,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>342</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D343" s="3" t="s">
         <v>69</v>
@@ -35258,15 +35258,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>343</v>
       </c>
       <c r="B344" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="C344" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="C344" s="3" t="s">
-        <v>445</v>
       </c>
       <c r="D344" s="3" t="s">
         <v>81</v>
@@ -35353,15 +35353,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>344</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D345" s="3" t="s">
         <v>35</v>
@@ -35448,15 +35448,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>345</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D346" s="3" t="s">
         <v>38</v>
@@ -35543,12 +35543,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>346</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>186</v>
@@ -35638,12 +35638,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>347</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C348" s="3" t="s">
         <v>49</v>
@@ -35733,12 +35733,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>348</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>57</v>
@@ -35828,12 +35828,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>349</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C350" s="3" t="s">
         <v>152</v>
@@ -35923,12 +35923,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>350</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>46</v>
@@ -36018,15 +36018,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>351</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D352" s="3" t="s">
         <v>38</v>
@@ -36113,15 +36113,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>352</v>
       </c>
       <c r="B353" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C353" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="C353" s="3" t="s">
-        <v>455</v>
       </c>
       <c r="D353" s="3" t="s">
         <v>81</v>
@@ -36208,12 +36208,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>353</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C354" s="3" t="s">
         <v>28</v>
@@ -36303,12 +36303,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>354</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C355" s="3" t="s">
         <v>28</v>
@@ -36394,12 +36394,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>355</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C356" s="3" t="s">
         <v>186</v>
@@ -36489,15 +36489,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>356</v>
       </c>
       <c r="B357" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C357" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="C357" s="3" t="s">
-        <v>460</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>38</v>
@@ -36584,12 +36584,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>357</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C358" s="3" t="s">
         <v>28</v>
@@ -36677,15 +36677,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>358</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D359" s="3" t="s">
         <v>81</v>
@@ -36772,12 +36772,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>359</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C360" s="3" t="s">
         <v>28</v>
@@ -36867,12 +36867,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>360</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C361" s="3" t="s">
         <v>28</v>
@@ -36962,12 +36962,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>361</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C362" s="3" t="s">
         <v>28</v>
@@ -37055,12 +37055,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>362</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C363" s="3" t="s">
         <v>28</v>
@@ -37150,15 +37150,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>363</v>
       </c>
       <c r="B364" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C364" s="3" t="s">
         <v>466</v>
-      </c>
-      <c r="C364" s="3" t="s">
-        <v>467</v>
       </c>
       <c r="D364" s="3" t="s">
         <v>81</v>
@@ -37245,15 +37245,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>364</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D365" s="3" t="s">
         <v>84</v>
@@ -37340,12 +37340,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>365</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C366" s="3" t="s">
         <v>28</v>
@@ -37435,12 +37435,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>366</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C367" s="3" t="s">
         <v>28</v>
@@ -37530,12 +37530,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>367</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C368" s="3" t="s">
         <v>79</v>
@@ -37625,12 +37625,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>368</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C369" s="3" t="s">
         <v>28</v>
@@ -37720,12 +37720,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>369</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C370" s="3" t="s">
         <v>57</v>
@@ -37815,12 +37815,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>370</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C371" s="3" t="s">
         <v>203</v>
@@ -37910,12 +37910,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>371</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C372" s="3" t="s">
         <v>28</v>
@@ -38005,15 +38005,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>372</v>
       </c>
       <c r="B373" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="C373" s="3" t="s">
         <v>476</v>
-      </c>
-      <c r="C373" s="3" t="s">
-        <v>477</v>
       </c>
       <c r="D373" s="3" t="s">
         <v>69</v>
@@ -38100,12 +38100,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>373</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C374" s="3" t="s">
         <v>57</v>
@@ -38195,15 +38195,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>374</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D375" s="3" t="s">
         <v>81</v>
@@ -38290,12 +38290,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>375</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C376" s="3" t="s">
         <v>152</v>
@@ -38385,12 +38385,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>376</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C377" s="3" t="s">
         <v>28</v>
@@ -38480,12 +38480,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>377</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C378" s="3" t="s">
         <v>28</v>
@@ -38575,12 +38575,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>378</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C379" s="3" t="s">
         <v>28</v>
@@ -38670,12 +38670,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>379</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C380" s="3" t="s">
         <v>28</v>
@@ -38761,12 +38761,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>380</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C381" s="3" t="s">
         <v>28</v>
@@ -38852,12 +38852,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>381</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C382" s="3" t="s">
         <v>96</v>
@@ -38947,12 +38947,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>382</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C383" s="3" t="s">
         <v>28</v>
@@ -39042,12 +39042,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>383</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C384" s="3" t="s">
         <v>169</v>
@@ -39137,12 +39137,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>384</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C385" s="3" t="s">
         <v>186</v>
@@ -39232,12 +39232,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>385</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C386" s="3" t="s">
         <v>94</v>
@@ -39327,15 +39327,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>386</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D387" s="3" t="s">
         <v>81</v>
@@ -39422,12 +39422,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>387</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C388" s="3" t="s">
         <v>28</v>
@@ -39517,12 +39517,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>388</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C389" s="3" t="s">
         <v>186</v>
@@ -39612,15 +39612,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>389</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D390" s="3" t="s">
         <v>118</v>
@@ -39705,12 +39705,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>390</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C391" s="3" t="s">
         <v>96</v>
@@ -39800,12 +39800,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>391</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C392" s="3" t="s">
         <v>57</v>
@@ -39895,12 +39895,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>392</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C393" s="3" t="s">
         <v>158</v>
@@ -39990,15 +39990,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>393</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D394" s="3" t="s">
         <v>118</v>
@@ -40085,12 +40085,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>394</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C395" s="3" t="s">
         <v>94</v>
@@ -40180,12 +40180,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>395</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C396" s="3" t="s">
         <v>114</v>
@@ -40275,12 +40275,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>396</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C397" s="3" t="s">
         <v>174</v>
@@ -40370,15 +40370,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>397</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D398" s="3" t="s">
         <v>69</v>
@@ -40465,12 +40465,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>398</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C399" s="3" t="s">
         <v>152</v>
@@ -40560,15 +40560,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>399</v>
       </c>
       <c r="B400" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C400" s="3" t="s">
         <v>503</v>
-      </c>
-      <c r="C400" s="3" t="s">
-        <v>504</v>
       </c>
       <c r="D400" s="3" t="s">
         <v>69</v>
@@ -40655,12 +40655,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>400</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C401" s="3" t="s">
         <v>28</v>
@@ -40750,12 +40750,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>401</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C402" s="3" t="s">
         <v>28</v>
@@ -40841,12 +40841,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>402</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C403" s="3" t="s">
         <v>28</v>
@@ -40932,12 +40932,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>403</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C404" s="3" t="s">
         <v>28</v>
@@ -41027,12 +41027,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>404</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C405" s="3" t="s">
         <v>28</v>
@@ -41122,15 +41122,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>405</v>
       </c>
       <c r="B406" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C406" s="3" t="s">
         <v>508</v>
-      </c>
-      <c r="C406" s="3" t="s">
-        <v>509</v>
       </c>
       <c r="D406" s="3" t="s">
         <v>81</v>
@@ -41217,12 +41217,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>406</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C407" s="3" t="s">
         <v>28</v>
@@ -41312,12 +41312,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>407</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C408" s="3" t="s">
         <v>28</v>
@@ -41407,12 +41407,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>408</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C409" s="3" t="s">
         <v>186</v>
@@ -41498,12 +41498,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>409</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C410" s="3" t="s">
         <v>158</v>
@@ -41591,12 +41591,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>410</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C411" s="3" t="s">
         <v>28</v>
@@ -41686,15 +41686,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>411</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D412" s="3" t="s">
         <v>81</v>
@@ -41781,12 +41781,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>412</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C413" s="3" t="s">
         <v>114</v>
@@ -41876,12 +41876,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>413</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C414" s="3" t="s">
         <v>43</v>
@@ -41971,12 +41971,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>414</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C415" s="3" t="s">
         <v>28</v>
@@ -42066,12 +42066,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>415</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C416" s="3" t="s">
         <v>46</v>
@@ -42161,12 +42161,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>416</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C417" s="3" t="s">
         <v>79</v>
@@ -42254,15 +42254,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>417</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D418" s="3" t="s">
         <v>118</v>
@@ -42349,12 +42349,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>418</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C419" s="3" t="s">
         <v>28</v>
@@ -42444,12 +42444,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>419</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C420" s="3" t="s">
         <v>28</v>
@@ -42539,12 +42539,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>420</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C421" s="3" t="s">
         <v>28</v>
@@ -42634,12 +42634,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>421</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C422" s="3" t="s">
         <v>71</v>
@@ -42727,12 +42727,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>422</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C423" s="3" t="s">
         <v>28</v>
@@ -42820,12 +42820,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>423</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C424" s="3" t="s">
         <v>28</v>
@@ -42915,12 +42915,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>424</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C425" s="3" t="s">
         <v>57</v>
@@ -43010,15 +43010,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>425</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D426" s="3" t="s">
         <v>69</v>
@@ -43105,12 +43105,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>426</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C427" s="3" t="s">
         <v>57</v>
@@ -43196,12 +43196,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>427</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C428" s="3" t="s">
         <v>94</v>
@@ -43291,12 +43291,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>428</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C429" s="3" t="s">
         <v>28</v>
@@ -43384,12 +43384,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>429</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C430" s="3" t="s">
         <v>28</v>
@@ -43479,12 +43479,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>430</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C431" s="3" t="s">
         <v>28</v>
@@ -43572,12 +43572,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>431</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C432" s="3" t="s">
         <v>28</v>
@@ -43667,12 +43667,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>432</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C433" s="3" t="s">
         <v>87</v>
@@ -43762,12 +43762,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>433</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C434" s="3" t="s">
         <v>28</v>
@@ -43857,12 +43857,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>434</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C435" s="3" t="s">
         <v>28</v>
@@ -43950,12 +43950,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>435</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C436" s="3" t="s">
         <v>28</v>
@@ -44045,12 +44045,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>436</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C437" s="3" t="s">
         <v>28</v>
@@ -44140,12 +44140,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>437</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C438" s="3" t="s">
         <v>28</v>
@@ -44235,12 +44235,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>438</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C439" s="3" t="s">
         <v>28</v>
@@ -44330,15 +44330,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>439</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D440" s="3" t="s">
         <v>118</v>
@@ -44423,12 +44423,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>440</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C441" s="3" t="s">
         <v>28</v>
@@ -44518,15 +44518,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A442" s="1">
         <v>441</v>
       </c>
       <c r="B442" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="C442" s="3" t="s">
         <v>545</v>
-      </c>
-      <c r="C442" s="3" t="s">
-        <v>546</v>
       </c>
       <c r="D442" s="3" t="s">
         <v>69</v>
@@ -44613,15 +44613,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>442</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D443" s="3" t="s">
         <v>84</v>
@@ -44706,12 +44706,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>443</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C444" s="3" t="s">
         <v>28</v>
@@ -44799,12 +44799,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>444</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C445" s="3" t="s">
         <v>28</v>
@@ -44894,15 +44894,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>445</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D446" s="3" t="s">
         <v>118</v>
@@ -44989,12 +44989,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>446</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C447" s="3" t="s">
         <v>57</v>
@@ -45084,12 +45084,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>447</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C448" s="3" t="s">
         <v>28</v>
@@ -45179,12 +45179,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>448</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C449" s="3" t="s">
         <v>94</v>
@@ -45274,12 +45274,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A450" s="1">
         <v>449</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C450" s="3" t="s">
         <v>94</v>
@@ -45367,12 +45367,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>450</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C451" s="3" t="s">
         <v>28</v>
@@ -45458,12 +45458,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>451</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C452" s="3" t="s">
         <v>28</v>
@@ -45551,15 +45551,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>452</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D453" s="3" t="s">
         <v>84</v>
@@ -45644,12 +45644,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>453</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C454" s="3" t="s">
         <v>166</v>
@@ -45737,15 +45737,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>454</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D455" s="3" t="s">
         <v>81</v>
@@ -45832,12 +45832,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>455</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C456" s="3" t="s">
         <v>137</v>
@@ -45925,12 +45925,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>456</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C457" s="3" t="s">
         <v>46</v>
@@ -46020,12 +46020,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>457</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C458" s="3" t="s">
         <v>230</v>
@@ -46115,12 +46115,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>458</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C459" s="3" t="s">
         <v>100</v>
@@ -46208,12 +46208,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>459</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C460" s="3" t="s">
         <v>28</v>
@@ -46301,12 +46301,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>460</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C461" s="3" t="s">
         <v>28</v>
@@ -46394,12 +46394,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>461</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C462" s="3" t="s">
         <v>60</v>
@@ -46487,12 +46487,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>462</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C463" s="3" t="s">
         <v>230</v>
@@ -46580,7 +46580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -46673,12 +46673,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>464</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C465" s="3" t="s">
         <v>96</v>
@@ -46766,12 +46766,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>465</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C466" s="3" t="s">
         <v>137</v>
@@ -46859,12 +46859,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>466</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C467" s="3" t="s">
         <v>205</v>
@@ -46954,12 +46954,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>467</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C468" s="3" t="s">
         <v>28</v>
@@ -47047,12 +47047,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A469" s="1">
         <v>468</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C469" s="3" t="s">
         <v>96</v>
@@ -47142,12 +47142,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A470" s="1">
         <v>469</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C470" s="3" t="s">
         <v>28</v>
@@ -47237,12 +47237,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A471" s="1">
         <v>470</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C471" s="3" t="s">
         <v>28</v>
@@ -47332,12 +47332,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>471</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C472" s="3" t="s">
         <v>28</v>
@@ -47427,12 +47427,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>472</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C473" s="3" t="s">
         <v>28</v>
@@ -47520,12 +47520,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>473</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C474" s="3" t="s">
         <v>79</v>
@@ -47615,15 +47615,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>474</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D475" s="3" t="s">
         <v>84</v>
@@ -47706,12 +47706,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>475</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C476" s="3" t="s">
         <v>230</v>
@@ -47797,12 +47797,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>476</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C477" s="3" t="s">
         <v>57</v>
@@ -47888,12 +47888,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>477</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C478" s="3" t="s">
         <v>28</v>
@@ -47983,12 +47983,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>478</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C479" s="3" t="s">
         <v>79</v>
@@ -48076,12 +48076,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>479</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C480" s="3" t="s">
         <v>137</v>
@@ -48171,12 +48171,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>480</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C481" s="3" t="s">
         <v>28</v>
@@ -48264,15 +48264,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>481</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D482" s="3" t="s">
         <v>108</v>
@@ -48357,12 +48357,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>482</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C483" s="3" t="s">
         <v>28</v>
@@ -48448,12 +48448,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>483</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C484" s="3" t="s">
         <v>230</v>
@@ -48539,12 +48539,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:31" ht="16" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>484</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C485" s="3" t="s">
         <v>28</v>
@@ -48632,7 +48632,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:31" ht="12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
